--- a/data/trans_orig/Q17F_D_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B722BDBE-6F88-4245-AB4A-15B66B43B079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18E9F657-D8A9-492A-9395-F0A8C37A28F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD33DD8A-A875-42C1-8065-5BA335926708}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A0A9E3C-CFA7-4647-AA9E-88BA4D89D47A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
   <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2007 (Tasa respuesta: 23,85%)</t>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2007 (Tasa respuesta: 23,85%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,10 +77,10 @@
     <t>15,35%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
   </si>
   <si>
     <t>3,76%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,36%</t>
+    <t>12,91%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>84,65%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>96,24%</t>
   </si>
   <si>
-    <t>86,64%</t>
+    <t>87,09%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>92,61%</t>
   </si>
   <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>14,73%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>85,27%</t>
   </si>
   <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>88,46%</t>
   </si>
   <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,55 +197,55 @@
     <t>11,1%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>86,7%</t>
   </si>
   <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -254,55 +254,55 @@
     <t>24,15%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
   <si>
     <t>16,91%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>19,9%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
   </si>
   <si>
     <t>83,09%</t>
   </si>
   <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>80,1%</t>
   </si>
   <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,79 +311,76 @@
     <t>17,51%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
   </si>
   <si>
     <t>82,49%</t>
   </si>
   <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>83,25%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>17,23%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>13,76%</t>
+    <t>13,7%</t>
   </si>
   <si>
     <t>17,49%</t>
@@ -392,19 +389,16 @@
     <t>83,32%</t>
   </si>
   <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>85,34%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>82,77%</t>
   </si>
   <si>
     <t>84,56%</t>
@@ -413,22 +407,22 @@
     <t>82,51%</t>
   </si>
   <si>
-    <t>86,24%</t>
+    <t>86,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2012 (Tasa respuesta: 26,39%)</t>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2012 (Tasa respuesta: 26,39%)</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
   </si>
   <si>
     <t>12,3%</t>
@@ -437,31 +431,31 @@
     <t>3,25%</t>
   </si>
   <si>
-    <t>27,87%</t>
+    <t>27,77%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>72,13%</t>
+    <t>72,23%</t>
   </si>
   <si>
     <t>96,75%</t>
@@ -470,886 +464,892 @@
     <t>85,14%</t>
   </si>
   <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>85,85%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>15,67%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
+    <t>22,52%</t>
   </si>
   <si>
     <t>14,7%</t>
   </si>
   <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2016 (Tasa respuesta: 27,46%)</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2016 (Tasa respuesta: 27,46%)</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>91,45%</t>
   </si>
   <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>16,08%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>11,85%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>83,92%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>88,15%</t>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>9,03%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>83,71%</t>
   </si>
   <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>86,73%</t>
   </si>
   <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2023 (Tasa respuesta: 22,27%)</t>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2023 (Tasa respuesta: 22,27%)</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
   </si>
   <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>84,77%</t>
   </si>
   <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>28,45%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
+    <t>17,73%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>71,55%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>75,98%</t>
   </si>
   <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>77,94%</t>
   </si>
   <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
+    <t>82,27%</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
   </si>
   <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
   </si>
   <si>
     <t>32,1%</t>
   </si>
   <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
   </si>
   <si>
     <t>63,77%</t>
   </si>
   <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
   </si>
   <si>
     <t>67,9%</t>
   </si>
   <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
   </si>
   <si>
     <t>46,46%</t>
   </si>
   <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
   </si>
   <si>
     <t>43,62%</t>
   </si>
   <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
   </si>
   <si>
     <t>44,9%</t>
   </si>
   <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
   </si>
   <si>
     <t>53,54%</t>
   </si>
   <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
   </si>
   <si>
     <t>56,38%</t>
   </si>
   <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
   </si>
   <si>
     <t>55,1%</t>
   </si>
   <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
   </si>
   <si>
     <t>38,5%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
   </si>
   <si>
     <t>44,03%</t>
   </si>
   <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>41,87%</t>
   </si>
   <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
   </si>
   <si>
     <t>61,5%</t>
   </si>
   <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
   </si>
   <si>
     <t>55,97%</t>
   </si>
   <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
   </si>
   <si>
     <t>58,13%</t>
   </si>
   <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>37,85%</t>
   </si>
   <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
   </si>
   <si>
     <t>35,9%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
   <si>
     <t>62,15%</t>
   </si>
   <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
   </si>
   <si>
     <t>64,1%</t>
   </si>
   <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C0605-9777-488F-A53A-1EE2D9D0397D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF157B-983A-4417-89C3-AADC3A710A3F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2657,7 +2657,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="7">
-        <v>100900</v>
+        <v>100901</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -2678,10 +2678,10 @@
         <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>238</v>
@@ -2690,13 +2690,13 @@
         <v>242873</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2711,13 @@
         <v>504183</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>810</v>
@@ -2726,13 +2726,13 @@
         <v>826310</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>1315</v>
@@ -2741,13 +2741,13 @@
         <v>1330493</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2759,7 @@
         <v>608</v>
       </c>
       <c r="D21" s="7">
-        <v>605083</v>
+        <v>605084</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56709F4B-617B-47B3-A6B4-9201904081F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F0D5E4-B659-4F4F-B8BE-2FCA7DD8F7E5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,7 +2841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,13 +2948,13 @@
         <v>4926</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2963,13 +2963,13 @@
         <v>4394</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2978,13 +2978,13 @@
         <v>9320</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2999,13 @@
         <v>22062</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -3014,13 +3014,13 @@
         <v>31323</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -3029,13 +3029,13 @@
         <v>53385</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3103,13 @@
         <v>19347</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -3118,13 +3118,13 @@
         <v>20633</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3133,13 +3133,13 @@
         <v>39980</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3154,13 @@
         <v>129433</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>156</v>
@@ -3169,13 +3169,13 @@
         <v>166367</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>274</v>
@@ -3184,13 +3184,13 @@
         <v>295800</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3258,13 @@
         <v>34570</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3273,13 +3273,13 @@
         <v>46165</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -3288,13 +3288,13 @@
         <v>80735</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3309,13 @@
         <v>187632</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -3324,13 +3324,13 @@
         <v>302225</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>449</v>
@@ -3339,13 +3339,13 @@
         <v>489857</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3413,13 @@
         <v>25755</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3428,13 +3428,13 @@
         <v>31053</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -3443,13 +3443,13 @@
         <v>56808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3464,13 @@
         <v>138567</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>163</v>
@@ -3479,13 +3479,13 @@
         <v>180140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>284</v>
@@ -3494,13 +3494,13 @@
         <v>318707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3568,13 @@
         <v>23821</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -3583,13 +3583,13 @@
         <v>48733</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>69</v>
@@ -3598,13 +3598,13 @@
         <v>72554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3619,13 @@
         <v>159861</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -3634,13 +3634,13 @@
         <v>277071</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>415</v>
@@ -3649,13 +3649,13 @@
         <v>436932</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3723,13 @@
         <v>108419</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>144</v>
@@ -3738,13 +3738,13 @@
         <v>150978</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>245</v>
@@ -3753,13 +3753,13 @@
         <v>259397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3774,13 @@
         <v>637556</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>889</v>
@@ -3789,13 +3789,13 @@
         <v>957126</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>1472</v>
@@ -3804,13 +3804,13 @@
         <v>1594681</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,7 +3866,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3887,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF35CDF-04BC-4E4B-94E6-955D38D81D04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D28A0A0-628D-47E2-A621-D752F7FA8C0E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3904,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,13 +4011,13 @@
         <v>2686</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4026,13 +4026,13 @@
         <v>3433</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4041,13 +4041,13 @@
         <v>6119</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4062,13 @@
         <v>34844</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -4077,7 +4077,7 @@
         <v>30623</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>245</v>
@@ -4202,7 +4202,7 @@
         <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4217,13 @@
         <v>121727</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>158</v>
@@ -4232,13 +4232,13 @@
         <v>161781</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>277</v>
@@ -4247,13 +4247,13 @@
         <v>283509</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4321,13 @@
         <v>26551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -4336,13 +4336,13 @@
         <v>41575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -4351,13 +4351,13 @@
         <v>68126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4372,13 @@
         <v>230533</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>277</v>
@@ -4387,13 +4387,13 @@
         <v>300709</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>492</v>
@@ -4402,13 +4402,13 @@
         <v>531241</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4476,13 @@
         <v>31103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4491,13 +4491,13 @@
         <v>56427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -4506,13 +4506,13 @@
         <v>87530</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4527,13 @@
         <v>135486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -4664,10 +4664,10 @@
         <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4682,13 @@
         <v>186704</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>225</v>
@@ -4697,13 +4697,13 @@
         <v>249197</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>412</v>
@@ -4712,13 +4712,13 @@
         <v>435902</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4786,13 @@
         <v>106963</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>164</v>
@@ -4801,13 +4801,13 @@
         <v>180367</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="M19" s="7">
         <v>263</v>
@@ -4816,13 +4816,13 @@
         <v>287330</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4837,13 @@
         <v>709295</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>861</v>
@@ -4852,13 +4852,13 @@
         <v>926769</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M20" s="7">
         <v>1541</v>
@@ -4867,13 +4867,13 @@
         <v>1636064</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,7 +4929,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A805F18C-8364-40F2-A419-7E3ECF8BB50A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0580FBCC-6056-451D-B800-48AD233A4699}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5155,7 +5155,7 @@
         <v>36640</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>347</v>
@@ -5232,10 +5232,10 @@
         <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -5244,13 +5244,13 @@
         <v>34140</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -5259,13 +5259,13 @@
         <v>52375</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,7 +5286,7 @@
         <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>184</v>
@@ -5295,13 +5295,13 @@
         <v>107980</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>277</v>
@@ -5310,10 +5310,10 @@
         <v>185066</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>364</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
